--- a/车型列表.xlsx
+++ b/车型列表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tunan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tunan/PycharmProjects/BenchMarkApp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DFD45D-4B1E-F548-B172-8560E6BB013D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE555DB-3BFB-9D4F-AA1E-E6AA025B8FFB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32060" yWindow="3520" windowWidth="24940" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="车型列表" sheetId="1" r:id="rId1"/>
@@ -1921,8 +1921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CI36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="BE1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="BO2" sqref="BO2:BO28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2464,7 +2464,8 @@
         <v>0</v>
       </c>
       <c r="BO2">
-        <v>232.41342571401719</v>
+        <f ca="1">F2/1000+RANDBETWEEN(-50,150)</f>
+        <v>333.8</v>
       </c>
       <c r="BP2">
         <v>70.945145346423999</v>
@@ -2518,7 +2519,8 @@
         <v>57.727312489579127</v>
       </c>
       <c r="CG2">
-        <v>1176.892105374242</v>
+        <f ca="1">(F2/100)*(F2/100)+RANDBETWEEN(-200000,200000)</f>
+        <v>10989559</v>
       </c>
       <c r="CH2" t="s">
         <v>152</v>
@@ -2727,7 +2729,8 @@
         <v>0</v>
       </c>
       <c r="BO3">
-        <v>233.413425714017</v>
+        <f t="shared" ref="BO3:BO28" ca="1" si="0">F3/1000+RANDBETWEEN(-50,150)</f>
+        <v>256</v>
       </c>
       <c r="BP3">
         <v>70.945145346423999</v>
@@ -2781,7 +2784,8 @@
         <v>57.727312489579127</v>
       </c>
       <c r="CG3">
-        <v>1176.892105374242</v>
+        <f t="shared" ref="CG3:CG28" ca="1" si="1">(F3/100)*(F3/100)+RANDBETWEEN(-200000,200000)</f>
+        <v>1931111</v>
       </c>
       <c r="CH3" t="s">
         <v>152</v>
@@ -2990,7 +2994,8 @@
         <v>0</v>
       </c>
       <c r="BO4">
-        <v>234.413425714017</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>238</v>
       </c>
       <c r="BP4">
         <v>70.945145346423999</v>
@@ -3044,7 +3049,8 @@
         <v>57.727312489579127</v>
       </c>
       <c r="CG4">
-        <v>1176.892105374242</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2284001</v>
       </c>
       <c r="CH4" t="s">
         <v>152</v>
@@ -3253,7 +3259,8 @@
         <v>0</v>
       </c>
       <c r="BO5">
-        <v>235.413425714017</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>194</v>
       </c>
       <c r="BP5">
         <v>70.945145346423999</v>
@@ -3307,7 +3314,8 @@
         <v>57.727312489579127</v>
       </c>
       <c r="CG5">
-        <v>1176.892105374242</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1808717</v>
       </c>
       <c r="CH5" t="s">
         <v>152</v>
@@ -3516,7 +3524,8 @@
         <v>0</v>
       </c>
       <c r="BO6">
-        <v>236.413425714017</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>224.8</v>
       </c>
       <c r="BP6">
         <v>70.945145346423999</v>
@@ -3570,7 +3579,8 @@
         <v>57.727312489579127</v>
       </c>
       <c r="CG6">
-        <v>1176.892105374242</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3898339</v>
       </c>
       <c r="CH6" t="s">
         <v>152</v>
@@ -3779,7 +3789,8 @@
         <v>0</v>
       </c>
       <c r="BO7">
-        <v>237.413425714017</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
       </c>
       <c r="BP7">
         <v>70.945145346423999</v>
@@ -3833,7 +3844,8 @@
         <v>57.727312489579127</v>
       </c>
       <c r="CG7">
-        <v>1176.892105374242</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1183450</v>
       </c>
       <c r="CH7" t="s">
         <v>152</v>
@@ -4042,7 +4054,8 @@
         <v>0</v>
       </c>
       <c r="BO8">
-        <v>238.413425714017</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>84</v>
       </c>
       <c r="BP8">
         <v>70.945145346423999</v>
@@ -4096,7 +4109,8 @@
         <v>57.727312489579127</v>
       </c>
       <c r="CG8">
-        <v>1176.892105374242</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>211326</v>
       </c>
       <c r="CH8" t="s">
         <v>152</v>
@@ -4305,7 +4319,8 @@
         <v>0</v>
       </c>
       <c r="BO9">
-        <v>239.413425714017</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>113</v>
       </c>
       <c r="BP9">
         <v>70.945145346423999</v>
@@ -4359,7 +4374,8 @@
         <v>57.727312489579127</v>
       </c>
       <c r="CG9">
-        <v>1176.892105374242</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>460162</v>
       </c>
       <c r="CH9" t="s">
         <v>152</v>
@@ -4568,7 +4584,8 @@
         <v>0</v>
       </c>
       <c r="BO10">
-        <v>240.413425714017</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>129</v>
       </c>
       <c r="BP10">
         <v>70.945145346423999</v>
@@ -4622,7 +4639,8 @@
         <v>57.727312489579127</v>
       </c>
       <c r="CG10">
-        <v>1176.892105374242</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2114564</v>
       </c>
       <c r="CH10" t="s">
         <v>152</v>
@@ -4831,7 +4849,8 @@
         <v>0</v>
       </c>
       <c r="BO11">
-        <v>241.413425714017</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>202</v>
       </c>
       <c r="BP11">
         <v>70.945145346423999</v>
@@ -4885,7 +4904,8 @@
         <v>57.727312489579127</v>
       </c>
       <c r="CG11">
-        <v>1176.892105374242</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>385145</v>
       </c>
       <c r="CH11" t="s">
         <v>152</v>
@@ -5094,7 +5114,8 @@
         <v>0</v>
       </c>
       <c r="BO12">
-        <v>242.413425714017</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>340</v>
       </c>
       <c r="BP12">
         <v>70.945145346423999</v>
@@ -5148,7 +5169,8 @@
         <v>57.727312489579127</v>
       </c>
       <c r="CG12">
-        <v>1176.892105374242</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9545805</v>
       </c>
       <c r="CH12" t="s">
         <v>152</v>
@@ -5357,7 +5379,8 @@
         <v>0</v>
       </c>
       <c r="BO13">
-        <v>243.413425714017</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>501</v>
       </c>
       <c r="BP13">
         <v>70.945145346423999</v>
@@ -5411,7 +5434,8 @@
         <v>57.727312489579127</v>
       </c>
       <c r="CG13">
-        <v>1176.892105374242</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>16638793</v>
       </c>
       <c r="CH13" t="s">
         <v>152</v>
@@ -5620,7 +5644,8 @@
         <v>0</v>
       </c>
       <c r="BO14">
-        <v>244.413425714017</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>191.8</v>
       </c>
       <c r="BP14">
         <v>70.945145346423999</v>
@@ -5674,7 +5699,8 @@
         <v>57.727312489579127</v>
       </c>
       <c r="CG14">
-        <v>1176.892105374242</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1351313</v>
       </c>
       <c r="CH14" t="s">
         <v>152</v>
@@ -5883,7 +5909,8 @@
         <v>0</v>
       </c>
       <c r="BO15">
-        <v>245.413425714017</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>289.89999999999998</v>
       </c>
       <c r="BP15">
         <v>70.945145346423999</v>
@@ -5937,7 +5964,8 @@
         <v>57.727312489579127</v>
       </c>
       <c r="CG15">
-        <v>1176.892105374242</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2453961</v>
       </c>
       <c r="CH15" t="s">
         <v>152</v>
@@ -6146,7 +6174,8 @@
         <v>0</v>
       </c>
       <c r="BO16">
-        <v>246.413425714017</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>300</v>
       </c>
       <c r="BP16">
         <v>70.945145346423999</v>
@@ -6200,7 +6229,8 @@
         <v>57.727312489579127</v>
       </c>
       <c r="CG16">
-        <v>1176.892105374242</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5027554</v>
       </c>
       <c r="CH16" t="s">
         <v>152</v>
@@ -6409,7 +6439,8 @@
         <v>0</v>
       </c>
       <c r="BO17">
-        <v>247.413425714017</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>117</v>
       </c>
       <c r="BP17">
         <v>70.945145346423999</v>
@@ -6463,7 +6494,8 @@
         <v>57.727312489579127</v>
       </c>
       <c r="CG17">
-        <v>1176.892105374242</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2092624</v>
       </c>
       <c r="CH17" t="s">
         <v>152</v>
@@ -6672,7 +6704,8 @@
         <v>0</v>
       </c>
       <c r="BO18">
-        <v>248.413425714017</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>204</v>
       </c>
       <c r="BP18">
         <v>70.945145346423999</v>
@@ -6726,7 +6759,8 @@
         <v>57.727312489579127</v>
       </c>
       <c r="CG18">
-        <v>1176.892105374242</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>378400</v>
       </c>
       <c r="CH18" t="s">
         <v>152</v>
@@ -6935,7 +6969,8 @@
         <v>0</v>
       </c>
       <c r="BO19">
-        <v>249.413425714017</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>267</v>
       </c>
       <c r="BP19">
         <v>70.945145346423999</v>
@@ -6989,7 +7024,8 @@
         <v>57.727312489579127</v>
       </c>
       <c r="CG19">
-        <v>1176.892105374242</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1822309</v>
       </c>
       <c r="CH19" t="s">
         <v>152</v>
@@ -7198,7 +7234,8 @@
         <v>0</v>
       </c>
       <c r="BO20">
-        <v>250.413425714017</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>218</v>
       </c>
       <c r="BP20">
         <v>70.945145346423999</v>
@@ -7252,7 +7289,8 @@
         <v>57.727312489579127</v>
       </c>
       <c r="CG20">
-        <v>1176.892105374242</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3864753</v>
       </c>
       <c r="CH20" t="s">
         <v>152</v>
@@ -7461,7 +7499,8 @@
         <v>0</v>
       </c>
       <c r="BO21">
-        <v>251.413425714017</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>196</v>
       </c>
       <c r="BP21">
         <v>70.945145346423999</v>
@@ -7515,7 +7554,8 @@
         <v>57.727312489579127</v>
       </c>
       <c r="CG21">
-        <v>1176.892105374242</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3902976</v>
       </c>
       <c r="CH21" t="s">
         <v>152</v>
@@ -7724,7 +7764,8 @@
         <v>0</v>
       </c>
       <c r="BO22">
-        <v>252.413425714017</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>841</v>
       </c>
       <c r="BP22">
         <v>70.945145346423999</v>
@@ -7778,7 +7819,8 @@
         <v>57.727312489579127</v>
       </c>
       <c r="CG22">
-        <v>1176.892105374242</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>75569908</v>
       </c>
       <c r="CH22" t="s">
         <v>152</v>
@@ -7987,7 +8029,8 @@
         <v>0</v>
       </c>
       <c r="BO23">
-        <v>253.413425714017</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>448</v>
       </c>
       <c r="BP23">
         <v>70.945145346423999</v>
@@ -8041,7 +8084,8 @@
         <v>57.727312489579127</v>
       </c>
       <c r="CG23">
-        <v>1176.892105374242</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>18293273</v>
       </c>
       <c r="CH23" t="s">
         <v>152</v>
@@ -8250,7 +8294,8 @@
         <v>0</v>
       </c>
       <c r="BO24">
-        <v>254.413425714017</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>355</v>
       </c>
       <c r="BP24">
         <v>70.945145346423999</v>
@@ -8304,7 +8349,8 @@
         <v>57.727312489579127</v>
       </c>
       <c r="CG24">
-        <v>1176.892105374242</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6210572</v>
       </c>
       <c r="CH24" t="s">
         <v>152</v>
@@ -8513,7 +8559,8 @@
         <v>0</v>
       </c>
       <c r="BO25">
-        <v>255.413425714017</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>212</v>
       </c>
       <c r="BP25">
         <v>70.945145346423999</v>
@@ -8567,7 +8614,8 @@
         <v>57.727312489579127</v>
       </c>
       <c r="CG25">
-        <v>1176.892105374242</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6177770</v>
       </c>
       <c r="CH25" t="s">
         <v>152</v>
@@ -8776,7 +8824,8 @@
         <v>0</v>
       </c>
       <c r="BO26">
-        <v>256.41342571401702</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
       </c>
       <c r="BP26">
         <v>70.945145346423999</v>
@@ -8830,7 +8879,8 @@
         <v>57.727312489579127</v>
       </c>
       <c r="CG26">
-        <v>1176.892105374242</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>526713</v>
       </c>
       <c r="CH26" t="s">
         <v>152</v>
@@ -9039,7 +9089,8 @@
         <v>0</v>
       </c>
       <c r="BO27">
-        <v>257.41342571401702</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>161</v>
       </c>
       <c r="BP27">
         <v>70.945145346423999</v>
@@ -9093,7 +9144,8 @@
         <v>57.727312489579127</v>
       </c>
       <c r="CG27">
-        <v>1176.892105374242</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1900182</v>
       </c>
       <c r="CH27" t="s">
         <v>152</v>
@@ -9302,7 +9354,8 @@
         <v>0</v>
       </c>
       <c r="BO28">
-        <v>258.41342571401702</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>155</v>
       </c>
       <c r="BP28">
         <v>70.945145346423999</v>
@@ -9356,7 +9409,8 @@
         <v>57.727312489579127</v>
       </c>
       <c r="CG28">
-        <v>1176.892105374242</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>856291</v>
       </c>
       <c r="CH28" t="s">
         <v>152</v>
